--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>458450.9695147759</v>
+        <v>471774.4325047965</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>491565.8032302231</v>
+      </c>
+      <c r="C2" t="n">
+        <v>491565.8032302231</v>
+      </c>
+      <c r="D2" t="n">
         <v>491565.8032302229</v>
-      </c>
-      <c r="C2" t="n">
-        <v>491565.803230223</v>
-      </c>
-      <c r="D2" t="n">
-        <v>491565.8032302231</v>
       </c>
       <c r="E2" t="n">
         <v>137184.6577798363</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="C4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="D4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="F4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="G4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="H4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="I4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="J4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="K4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="L4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="M4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="N4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="O4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="P4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30221.02949725177</v>
+        <v>32415.06406411959</v>
       </c>
       <c r="C6" t="n">
-        <v>30221.02949725182</v>
+        <v>32415.06406411965</v>
       </c>
       <c r="D6" t="n">
-        <v>30221.02949725194</v>
+        <v>32415.06406411942</v>
       </c>
       <c r="E6" t="n">
-        <v>-48609.23046703728</v>
+        <v>-47309.03432787183</v>
       </c>
       <c r="F6" t="n">
-        <v>84490.76953296279</v>
+        <v>85790.96567212818</v>
       </c>
       <c r="G6" t="n">
-        <v>84490.76953296279</v>
+        <v>85790.96567212818</v>
       </c>
       <c r="H6" t="n">
-        <v>84490.76953296279</v>
+        <v>85790.96567212818</v>
       </c>
       <c r="I6" t="n">
-        <v>84490.76953296279</v>
+        <v>85790.96567212818</v>
       </c>
       <c r="J6" t="n">
-        <v>84490.76953296279</v>
+        <v>85790.96567212818</v>
       </c>
       <c r="K6" t="n">
-        <v>84490.76953296279</v>
+        <v>85790.96567212818</v>
       </c>
       <c r="L6" t="n">
-        <v>84490.76953296279</v>
+        <v>85790.96567212818</v>
       </c>
       <c r="M6" t="n">
-        <v>84490.76953296279</v>
+        <v>85790.96567212818</v>
       </c>
       <c r="N6" t="n">
-        <v>84490.76953296279</v>
+        <v>85790.96567212818</v>
       </c>
       <c r="O6" t="n">
-        <v>84490.76953296279</v>
+        <v>85790.96567212818</v>
       </c>
       <c r="P6" t="n">
-        <v>84490.76953296279</v>
+        <v>85790.96567212818</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>471774.4325047965</v>
+        <v>485500.7906422141</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.8032302231</v>
+        <v>491565.803230223</v>
       </c>
       <c r="C2" t="n">
-        <v>491565.8032302231</v>
+        <v>491565.8032302229</v>
       </c>
       <c r="D2" t="n">
         <v>491565.8032302229</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>425523.1391661035</v>
       </c>
       <c r="C4" t="n">
-        <v>425523.1391661035</v>
+        <v>425523.1391661036</v>
       </c>
       <c r="D4" t="n">
         <v>425523.1391661035</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32415.06406411959</v>
+        <v>32415.06406411945</v>
       </c>
       <c r="C6" t="n">
-        <v>32415.06406411965</v>
+        <v>32415.06406411934</v>
       </c>
       <c r="D6" t="n">
-        <v>32415.06406411942</v>
+        <v>32415.0640641194</v>
       </c>
       <c r="E6" t="n">
-        <v>-47309.03432787183</v>
+        <v>-47309.03432787189</v>
       </c>
       <c r="F6" t="n">
         <v>85790.96567212818</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>485500.7906422141</v>
+        <v>401715.3888805895</v>
       </c>
     </row>
     <row r="7">
@@ -26316,10 +26316,10 @@
         <v>491565.803230223</v>
       </c>
       <c r="C2" t="n">
-        <v>491565.8032302229</v>
+        <v>491565.803230223</v>
       </c>
       <c r="D2" t="n">
-        <v>491565.8032302229</v>
+        <v>491565.8032302231</v>
       </c>
       <c r="E2" t="n">
         <v>137184.6577798363</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32415.06406411945</v>
+        <v>32370.92828543839</v>
       </c>
       <c r="C6" t="n">
-        <v>32415.06406411934</v>
+        <v>32370.92828543833</v>
       </c>
       <c r="D6" t="n">
-        <v>32415.0640641194</v>
+        <v>32370.92828543845</v>
       </c>
       <c r="E6" t="n">
-        <v>-47309.03432787189</v>
+        <v>-62119.0511669858</v>
       </c>
       <c r="F6" t="n">
-        <v>85790.96567212818</v>
+        <v>70980.94883301428</v>
       </c>
       <c r="G6" t="n">
-        <v>85790.96567212818</v>
+        <v>70980.94883301428</v>
       </c>
       <c r="H6" t="n">
-        <v>85790.96567212818</v>
+        <v>70980.94883301428</v>
       </c>
       <c r="I6" t="n">
-        <v>85790.96567212818</v>
+        <v>70980.94883301428</v>
       </c>
       <c r="J6" t="n">
-        <v>85790.96567212818</v>
+        <v>70980.94883301428</v>
       </c>
       <c r="K6" t="n">
-        <v>85790.96567212818</v>
+        <v>70980.94883301428</v>
       </c>
       <c r="L6" t="n">
-        <v>85790.96567212818</v>
+        <v>70980.94883301428</v>
       </c>
       <c r="M6" t="n">
-        <v>85790.96567212818</v>
+        <v>70980.94883301428</v>
       </c>
       <c r="N6" t="n">
-        <v>85790.96567212818</v>
+        <v>70980.94883301428</v>
       </c>
       <c r="O6" t="n">
-        <v>85790.96567212818</v>
+        <v>70980.94883301428</v>
       </c>
       <c r="P6" t="n">
-        <v>85790.96567212818</v>
+        <v>70980.94883301428</v>
       </c>
     </row>
   </sheetData>
